--- a/public/assets/templates/subcategory_template.xlsx
+++ b/public/assets/templates/subcategory_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Projects\ElectricApps\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EF4534-07FB-4FDA-AD6C-787362603D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E885B7-5F7E-4E25-82B0-A3E6A32C4608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1DAA0498-BF2C-4FF9-8313-F5F0CB9699DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87B9B1DA-62F1-4B20-A611-BC238992D201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>SubcategoryCode</t>
   </si>
@@ -53,7 +53,67 @@
     <t>Description</t>
   </si>
   <si>
-    <t>LED-001</t>
+    <t>SUB001</t>
+  </si>
+  <si>
+    <t>Wires &amp; Cables</t>
+  </si>
+  <si>
+    <t>Copper Wire</t>
+  </si>
+  <si>
+    <t>Copper electrical wire</t>
+  </si>
+  <si>
+    <t>SUB002</t>
+  </si>
+  <si>
+    <t>Aluminium Wire</t>
+  </si>
+  <si>
+    <t>Aluminium wiring</t>
+  </si>
+  <si>
+    <t>SUB003</t>
+  </si>
+  <si>
+    <t>Flexible Cable</t>
+  </si>
+  <si>
+    <t>Multi strand cable</t>
+  </si>
+  <si>
+    <t>SUB004</t>
+  </si>
+  <si>
+    <t>Switches &amp; Sockets</t>
+  </si>
+  <si>
+    <t>Modular Switch</t>
+  </si>
+  <si>
+    <t>Designer switches</t>
+  </si>
+  <si>
+    <t>SUB005</t>
+  </si>
+  <si>
+    <t>Power Socket</t>
+  </si>
+  <si>
+    <t>Multi pin socket</t>
+  </si>
+  <si>
+    <t>SUB006</t>
+  </si>
+  <si>
+    <t>Switch Board</t>
+  </si>
+  <si>
+    <t>Electrical switch board</t>
+  </si>
+  <si>
+    <t>SUB007</t>
   </si>
   <si>
     <t>Lighting</t>
@@ -62,15 +122,251 @@
     <t>LED Bulb</t>
   </si>
   <si>
-    <t>LED Bulb 9W</t>
+    <t>Energy efficient bulb</t>
+  </si>
+  <si>
+    <t>SUB008</t>
+  </si>
+  <si>
+    <t>Tube Light</t>
+  </si>
+  <si>
+    <t>LED tube light</t>
+  </si>
+  <si>
+    <t>SUB009</t>
+  </si>
+  <si>
+    <t>Panel Light</t>
+  </si>
+  <si>
+    <t>Ceiling panel light</t>
+  </si>
+  <si>
+    <t>SUB010</t>
+  </si>
+  <si>
+    <t>Street Light</t>
+  </si>
+  <si>
+    <t>Outdoor lighting</t>
+  </si>
+  <si>
+    <t>SUB011</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Ceiling Fan</t>
+  </si>
+  <si>
+    <t>Ceiling mounted fan</t>
+  </si>
+  <si>
+    <t>SUB012</t>
+  </si>
+  <si>
+    <t>Exhaust Fan</t>
+  </si>
+  <si>
+    <t>Ventilation fan</t>
+  </si>
+  <si>
+    <t>SUB013</t>
+  </si>
+  <si>
+    <t>Wall Fan</t>
+  </si>
+  <si>
+    <t>Wall mounted fan</t>
+  </si>
+  <si>
+    <t>SUB014</t>
+  </si>
+  <si>
+    <t>MCB &amp; Distribution</t>
+  </si>
+  <si>
+    <t>MCB</t>
+  </si>
+  <si>
+    <t>Circuit breaker</t>
+  </si>
+  <si>
+    <t>SUB015</t>
+  </si>
+  <si>
+    <t>RCCB</t>
+  </si>
+  <si>
+    <t>Residual breaker</t>
+  </si>
+  <si>
+    <t>SUB016</t>
+  </si>
+  <si>
+    <t>Distribution Board</t>
+  </si>
+  <si>
+    <t>DB box</t>
+  </si>
+  <si>
+    <t>SUB017</t>
+  </si>
+  <si>
+    <t>Conduits &amp; Fittings</t>
+  </si>
+  <si>
+    <t>PVC Conduit</t>
+  </si>
+  <si>
+    <t>PVC wiring pipe</t>
+  </si>
+  <si>
+    <t>SUB018</t>
+  </si>
+  <si>
+    <t>Junction Box</t>
+  </si>
+  <si>
+    <t>Wire junction box</t>
+  </si>
+  <si>
+    <t>SUB019</t>
+  </si>
+  <si>
+    <t>Conduit Bend</t>
+  </si>
+  <si>
+    <t>Pipe bend</t>
+  </si>
+  <si>
+    <t>SUB020</t>
+  </si>
+  <si>
+    <t>Electrical Accessories</t>
+  </si>
+  <si>
+    <t>Plug Top</t>
+  </si>
+  <si>
+    <t>Electric plug</t>
+  </si>
+  <si>
+    <t>SUB021</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Bulb holder</t>
+  </si>
+  <si>
+    <t>SUB022</t>
+  </si>
+  <si>
+    <t>Extension Board</t>
+  </si>
+  <si>
+    <t>Extension cord</t>
+  </si>
+  <si>
+    <t>SUB023</t>
+  </si>
+  <si>
+    <t>Industrial Electrical</t>
+  </si>
+  <si>
+    <t>Contactor</t>
+  </si>
+  <si>
+    <t>Industrial contactor</t>
+  </si>
+  <si>
+    <t>SUB024</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>Electrical relay</t>
+  </si>
+  <si>
+    <t>SUB025</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Electrical timer</t>
+  </si>
+  <si>
+    <t>SUB026</t>
+  </si>
+  <si>
+    <t>Inverters &amp; Batteries</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>Power inverter</t>
+  </si>
+  <si>
+    <t>SUB027</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Backup battery</t>
+  </si>
+  <si>
+    <t>SUB028</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Power backup</t>
+  </si>
+  <si>
+    <t>SUB029</t>
+  </si>
+  <si>
+    <t>Smart Electrical</t>
+  </si>
+  <si>
+    <t>Smart Switch</t>
+  </si>
+  <si>
+    <t>WiFi switch</t>
+  </si>
+  <si>
+    <t>SUB030</t>
+  </si>
+  <si>
+    <t>Smart Plug</t>
+  </si>
+  <si>
+    <t>App control plug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -98,8 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,27 +730,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EA1E00-345E-4D00-B729-8ABBC88BD107}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701075BC-C9A3-4023-BFA4-E81F7A58406B}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -472,6 +776,499 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
